--- a/MissionEveryday_URL설계.xlsx
+++ b/MissionEveryday_URL설계.xlsx
@@ -20,6 +20,126 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="78">
   <x:si>
+    <x:t>user/sign_up_view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 - 내가 올린 포스트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "true"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 - 참여 중인 미션</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user/sign_in_view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "false"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"result": "fail"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "fail"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{result: "success"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MultipartFile</x:t>
+  </x:si>
+  <x:si>
+    <x:t>마이페이지 - 인증 현황</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /user/sign_up_for_submit</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /user/is_duplicated_id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/[categoryId]/[missionId]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /user/sign_in_check</x:t>
+  </x:si>
+  <x:si>
+    <x:t>email</x:t>
+  </x:si>
+  <x:si>
+    <x:t>postId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>String</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my/post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 로그인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면 URL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>file</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파라미터명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>loginId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>데이터 타입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 로그아웃</x:t>
+  </x:si>
+  <x:si>
+    <x:t>실패 시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 댓글 쓰기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 포스트 수정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 미션 탈퇴하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my/status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 포스트 업로드</x:t>
+  </x:si>
+  <x:si>
+    <x:t>my/mission</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 댓글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 미션 가입하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>미션 상세 페이지</x:t>
+  </x:si>
+  <x:si>
     <x:t>설계자: 이의연</x:t>
   </x:si>
   <x:si>
@@ -29,229 +149,109 @@
     <x:t>URL path</x:t>
   </x:si>
   <x:si>
-    <x:t>2. 댓글 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 미션 가입하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>미션 상세 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MultipartFile</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 인증 현황</x:t>
+    <x:t>4. 좋아요 반영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>화면 URL 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 회원가입하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3. 포스트 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카테고리 상세 페이지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>missionName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>post API 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>user API 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>password</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/main</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission API 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>comment API 설계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 아이디 중복 체크</x:t>
   </x:si>
   <x:si>
     <x:t>메인 홈 (미션 카테고리)</x:t>
   </x:si>
   <x:si>
-    <x:t>mission/main</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 아이디 중복 체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>comment API 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission API 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /user/sign_up_for_submit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/[categoryId]/[missionId]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /user/is_duplicated_id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면 URL 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>password</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 포스트 삭제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>missionId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카테고리 상세 페이지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user API 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 회원가입하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>post API 설계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 좋아요 반영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user/sign_up_view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 내가 올린 포스트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "true"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>마이페이지 - 참여 중인 미션</x:t>
-  </x:si>
-  <x:si>
-    <x:t>user/sign_in_view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "fail"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "false"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{result: "success"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"result": "fail"}</x:t>
+    <x:t>URL path: /post/create</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /post/update</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /post/delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /mission/out</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{"result": "success"}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /mission/join</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mission/[categoryId]</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /comment/delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URL path: /post/like_status</x:t>
   </x:si>
   <x:si>
     <x:t>URL path: /comment/create</x:t>
   </x:si>
   <x:si>
-    <x:t>URL path: /comment/delete</x:t>
-  </x:si>
-  <x:si>
     <x:t>URL path: /user/sign_out</x:t>
   </x:si>
   <x:si>
-    <x:t>URL path: /post/like_status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mission/[categoryId]</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /post/create</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{"result": "success"}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /post/delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /mission/join</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /post/update</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /mission/out</x:t>
+    <x:t>No.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
   </x:si>
   <x:si>
     <x:t>로그인</x:t>
   </x:si>
   <x:si>
+    <x:t>없음</x:t>
+  </x:si>
+  <x:si>
+    <x:t>N</x:t>
+  </x:si>
+  <x:si>
+    <x:t>응답값</x:t>
+  </x:si>
+  <x:si>
     <x:t>int</x:t>
   </x:si>
   <x:si>
-    <x:t>id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>No.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>N</x:t>
-  </x:si>
-  <x:si>
     <x:t>성공시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>없음</x:t>
-  </x:si>
-  <x:si>
-    <x:t>응답값</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 댓글 쓰기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 포스트 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my/mission</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my/status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 포스트 업로드</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 미션 탈퇴하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파라미터명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>file</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데이터 타입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3. 로그아웃</x:t>
-  </x:si>
-  <x:si>
-    <x:t>text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>email</x:t>
-  </x:si>
-  <x:si>
-    <x:t>content</x:t>
-  </x:si>
-  <x:si>
-    <x:t>실패 시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>loginId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>String</x:t>
-  </x:si>
-  <x:si>
-    <x:t>my/post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 로그인</x:t>
-  </x:si>
-  <x:si>
-    <x:t>화면 URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>postId</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URL path: /user/sign_in_check</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -289,92 +289,29 @@
       <x:sz val="11"/>
       <x:color rgb="ff000000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="10"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="돋움"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="돋움"/>
-          <x:sz val="20"/>
-          <x:color rgb="ff000000"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="10"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="돋움"/>
+      <x:sz val="20"/>
+      <x:color rgb="ff000000"/>
+      <x:b val="1"/>
+    </x:font>
   </x:fonts>
   <x:fills count="5">
     <x:fill>
@@ -1204,6 +1141,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1286,6 +1224,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1320,6 +1259,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1364,6 +1304,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1407,6 +1348,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1490,8 +1432,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1502,7 +1444,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
         </x:dxf>
@@ -1512,8 +1453,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1529,7 +1470,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -1544,8 +1484,8 @@
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
-            <x:color indexed="64"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1561,7 +1501,6 @@
       <mc:Fallback>
         <x:dxf>
           <x:font>
-            <x:color indexed="64"/>
             <x:b val="1"/>
           </x:font>
           <x:border>
@@ -1599,7 +1538,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing0.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1680,7 +1619,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2019,7 +1958,7 @@
   <x:dimension ref="A1:E13"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="I12" activeCellId="0" sqref="I12:I12"/>
+      <x:selection activeCell="G7" activeCellId="0" sqref="G7:G7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.550000000000001"/>
@@ -2032,7 +1971,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:5" ht="24.949999999999999">
       <x:c r="A1" s="36" t="s">
-        <x:v>16</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B1" s="37"/>
       <x:c r="C1" s="37"/>
@@ -2041,18 +1980,18 @@
     </x:row>
     <x:row r="2" spans="5:5">
       <x:c r="E2" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:4" ht="22.5" customHeight="1">
       <x:c r="B5" s="29" t="s">
-        <x:v>49</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C5" s="29" t="s">
-        <x:v>75</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D5" s="8" t="s">
-        <x:v>2</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:4" ht="22.5" customHeight="1">
@@ -2060,10 +1999,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="31" t="s">
-        <x:v>46</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="D6" s="31" t="s">
-        <x:v>30</x:v>
+        <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:4" ht="22.5" customHeight="1">
@@ -2071,10 +2010,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="C7" s="31" t="s">
-        <x:v>63</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D7" s="31" t="s">
-        <x:v>26</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4" ht="22.5" customHeight="1">
@@ -2082,10 +2021,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="C8" s="31" t="s">
-        <x:v>8</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D8" s="31" t="s">
-        <x:v>9</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:4" ht="22.5" customHeight="1">
@@ -2093,54 +2032,54 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="C9" s="31" t="s">
-        <x:v>21</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="D9" s="31" t="s">
-        <x:v>39</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:4" ht="22.5" customHeight="1">
       <x:c r="B10" s="30">
-        <x:v>10</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C10" s="31" t="s">
-        <x:v>5</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D10" s="31" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4" ht="22.5" customHeight="1">
       <x:c r="B11" s="30">
-        <x:v>11</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="C11" s="31" t="s">
-        <x:v>29</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="D11" s="31" t="s">
-        <x:v>57</x:v>
+        <x:v>36</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:4" ht="22.5" customHeight="1">
       <x:c r="B12" s="30">
-        <x:v>12</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C12" s="31" t="s">
-        <x:v>27</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D12" s="31" t="s">
-        <x:v>73</x:v>
+        <x:v>18</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:4" ht="22.5" customHeight="1">
       <x:c r="B13" s="30">
-        <x:v>13</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C13" s="31" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D13" s="31" t="s">
-        <x:v>58</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2171,7 +2110,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:6" ht="24.949999999999999">
       <x:c r="B1" s="36" t="s">
-        <x:v>22</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C1" s="37"/>
       <x:c r="D1" s="37"/>
@@ -2180,7 +2119,7 @@
     </x:row>
     <x:row r="2" spans="6:6">
       <x:c r="F2" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="6:6">
@@ -2191,12 +2130,12 @@
     </x:row>
     <x:row r="5" spans="2:2">
       <x:c r="B5" s="11" t="s">
-        <x:v>23</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:2">
       <x:c r="B6" s="21" t="s">
-        <x:v>13</x:v>
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:2">
@@ -2204,82 +2143,82 @@
     </x:row>
     <x:row r="8" spans="2:5">
       <x:c r="B8" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D8" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E8" s="10"/>
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="22" t="s">
-        <x:v>71</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C9" s="32" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="23" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:4">
       <x:c r="B10" s="2" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="D10" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="2" t="s">
-        <x:v>67</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C11" s="3" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="4" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:4">
       <x:c r="B12" s="5" t="s">
-        <x:v>68</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C12" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D12" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:4">
       <x:c r="B13" s="42" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C13" s="43"/>
       <x:c r="D13" s="21"/>
     </x:row>
     <x:row r="14" spans="2:4">
       <x:c r="B14" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C14" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="21"/>
     </x:row>
     <x:row r="15" spans="2:4">
       <x:c r="B15" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C15" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D15" s="21"/>
     </x:row>
@@ -2290,69 +2229,69 @@
     </x:row>
     <x:row r="18" spans="2:2">
       <x:c r="B18" s="11" t="s">
-        <x:v>74</x:v>
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:2">
       <x:c r="B19" s="21" t="s">
-        <x:v>77</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:4">
       <x:c r="B20" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:4">
       <x:c r="B21" s="25" t="s">
-        <x:v>71</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C21" s="33" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D21" s="26" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:4">
       <x:c r="B22" s="27" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C22" s="34" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C22" s="34" t="s">
-        <x:v>72</x:v>
-      </x:c>
       <x:c r="D22" s="28" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:4">
       <x:c r="B23" s="42" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C23" s="43"/>
       <x:c r="D23" s="23"/>
     </x:row>
     <x:row r="24" spans="2:4">
       <x:c r="B24" s="32" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C24" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D24" s="3"/>
     </x:row>
     <x:row r="25" spans="2:4">
       <x:c r="B25" s="6" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C25" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D25" s="3"/>
     </x:row>
@@ -2363,44 +2302,44 @@
     </x:row>
     <x:row r="28" spans="2:2">
       <x:c r="B28" s="11" t="s">
-        <x:v>65</x:v>
+        <x:v>29</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:4">
       <x:c r="B29" s="21" t="s">
-        <x:v>37</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C29" s="21"/>
       <x:c r="D29" s="21"/>
     </x:row>
     <x:row r="30" spans="2:4">
       <x:c r="B30" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C30" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D30" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:4">
       <x:c r="B31" s="39" t="s">
-        <x:v>53</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C31" s="40"/>
       <x:c r="D31" s="41"/>
     </x:row>
     <x:row r="32" spans="2:4">
       <x:c r="B32" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C32" s="41"/>
       <x:c r="D32" s="33"/>
     </x:row>
     <x:row r="33" spans="2:4">
       <x:c r="B33" s="45" t="s">
-        <x:v>53</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C33" s="46"/>
       <x:c r="D33" s="33"/>
@@ -2412,60 +2351,60 @@
     </x:row>
     <x:row r="36" spans="2:2">
       <x:c r="B36" s="11" t="s">
-        <x:v>10</x:v>
+        <x:v>56</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="2:4">
       <x:c r="B37" s="21" t="s">
-        <x:v>15</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C37" s="21"/>
       <x:c r="D37" s="21"/>
     </x:row>
     <x:row r="38" spans="2:4">
       <x:c r="B38" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C38" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D38" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="2:4">
       <x:c r="B39" s="5" t="s">
-        <x:v>71</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C39" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D39" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="2:4">
       <x:c r="B40" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C40" s="41"/>
       <x:c r="D40" s="21"/>
     </x:row>
     <x:row r="41" spans="2:4">
       <x:c r="B41" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C41" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D41" s="21"/>
     </x:row>
     <x:row r="42" spans="2:4">
       <x:c r="B42" s="5" t="s">
-        <x:v>28</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C42" s="7" t="s">
-        <x:v>32</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="D42" s="21"/>
     </x:row>
@@ -2502,7 +2441,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:6" ht="24.949999999999999">
       <x:c r="B1" s="36" t="s">
-        <x:v>12</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C1" s="37"/>
       <x:c r="D1" s="37"/>
@@ -2511,76 +2450,76 @@
     </x:row>
     <x:row r="2" spans="6:6">
       <x:c r="F2" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:2">
       <x:c r="B5" s="11" t="s">
-        <x:v>4</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:4">
       <x:c r="B6" s="13" t="s">
-        <x:v>43</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="13"/>
       <x:c r="D6" s="13"/>
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="17" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D8" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="12" t="s">
-        <x:v>19</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C9" s="17" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:4">
       <x:c r="B10" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C10" s="41"/>
       <x:c r="D10" s="21"/>
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C11" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D11" s="21"/>
     </x:row>
     <x:row r="12" spans="2:4">
       <x:c r="B12" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C12" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D12" s="21"/>
     </x:row>
@@ -2590,60 +2529,60 @@
     </x:row>
     <x:row r="15" spans="2:2">
       <x:c r="B15" s="11" t="s">
-        <x:v>60</x:v>
+        <x:v>33</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:4">
       <x:c r="B16" s="47" t="s">
-        <x:v>45</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" s="47"/>
       <x:c r="D16" s="47"/>
     </x:row>
     <x:row r="17" spans="2:4">
       <x:c r="B17" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C17" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D17" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="12" t="s">
-        <x:v>20</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C18" s="17" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D18" s="18" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:4">
       <x:c r="B19" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C19" s="41"/>
       <x:c r="D19" s="21"/>
     </x:row>
     <x:row r="20" spans="2:4">
       <x:c r="B20" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C20" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D20" s="21"/>
     </x:row>
     <x:row r="21" spans="2:4">
       <x:c r="B21" s="5" t="s">
-        <x:v>33</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C21" s="7" t="s">
-        <x:v>31</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D21" s="21"/>
     </x:row>
@@ -2678,7 +2617,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:6" ht="24.949999999999999">
       <x:c r="B1" s="36" t="s">
-        <x:v>24</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C1" s="37"/>
       <x:c r="D1" s="37"/>
@@ -2687,179 +2626,179 @@
     </x:row>
     <x:row r="2" spans="6:6">
       <x:c r="F2" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:2">
       <x:c r="B5" s="11" t="s">
-        <x:v>59</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:4">
       <x:c r="B6" s="21" t="s">
-        <x:v>40</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C6" s="21"/>
       <x:c r="D6" s="21"/>
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" s="5" t="s">
-        <x:v>20</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C8" s="6" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D8" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="5" t="s">
-        <x:v>19</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C9" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D9" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:4">
       <x:c r="B10" s="5" t="s">
-        <x:v>62</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="6" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D10" s="7" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="5" t="s">
-        <x:v>69</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>72</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D11" s="7" t="s">
-        <x:v>50</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:4">
       <x:c r="B12" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C12" s="41"/>
       <x:c r="D12" s="21"/>
     </x:row>
     <x:row r="13" spans="2:4">
       <x:c r="B13" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C13" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D13" s="21"/>
     </x:row>
     <x:row r="14" spans="2:4">
       <x:c r="B14" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C14" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D14" s="21"/>
     </x:row>
     <x:row r="18" spans="2:2">
       <x:c r="B18" s="11" t="s">
-        <x:v>56</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:4">
       <x:c r="B19" s="21" t="s">
-        <x:v>44</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C19" s="21"/>
       <x:c r="D19" s="21"/>
     </x:row>
     <x:row r="20" spans="2:4">
       <x:c r="B20" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C20" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D20" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="2:4">
       <x:c r="B21" s="24" t="s">
-        <x:v>48</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C21" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D21" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:4">
       <x:c r="B22" s="24" t="s">
-        <x:v>62</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C22" s="19" t="s">
-        <x:v>6</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D22" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="2:4">
       <x:c r="B23" s="24" t="s">
-        <x:v>69</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C23" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D23" s="20" t="s">
-        <x:v>50</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:4">
       <x:c r="B24" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C24" s="41"/>
       <x:c r="D24" s="21"/>
     </x:row>
     <x:row r="25" spans="2:4">
       <x:c r="B25" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C25" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D25" s="21"/>
     </x:row>
     <x:row r="26" spans="2:4">
       <x:c r="B26" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C26" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D26" s="21"/>
     </x:row>
@@ -2869,117 +2808,117 @@
     </x:row>
     <x:row r="29" spans="2:2">
       <x:c r="B29" s="11" t="s">
-        <x:v>18</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="2:4">
       <x:c r="B30" s="21" t="s">
-        <x:v>42</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C30" s="21"/>
       <x:c r="D30" s="21"/>
     </x:row>
     <x:row r="31" spans="2:4">
       <x:c r="B31" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C31" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D31" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="2:4">
       <x:c r="B32" s="24" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C32" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C32" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="D32" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:4">
       <x:c r="B33" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C33" s="41"/>
       <x:c r="D33" s="21"/>
     </x:row>
     <x:row r="34" spans="2:4">
       <x:c r="B34" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C34" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D34" s="21"/>
     </x:row>
     <x:row r="35" spans="2:4">
       <x:c r="B35" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C35" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D35" s="21"/>
     </x:row>
     <x:row r="40" spans="2:2">
       <x:c r="B40" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="2:2">
       <x:c r="B41" s="21" t="s">
-        <x:v>38</x:v>
+        <x:v>66</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="2:4">
       <x:c r="B42" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C42" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D42" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="2:4">
       <x:c r="B43" s="24" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C43" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C43" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="D43" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="2:4">
       <x:c r="B44" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C44" s="41"/>
       <x:c r="D44" s="21"/>
     </x:row>
     <x:row r="45" spans="2:4">
       <x:c r="B45" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C45" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D45" s="21"/>
     </x:row>
     <x:row r="46" spans="2:4">
       <x:c r="B46" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C46" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D46" s="21"/>
     </x:row>
@@ -3015,7 +2954,7 @@
   <x:sheetData>
     <x:row r="1" spans="2:6" ht="24.949999999999999">
       <x:c r="B1" s="36" t="s">
-        <x:v>11</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C1" s="37"/>
       <x:c r="D1" s="37"/>
@@ -3024,85 +2963,85 @@
     </x:row>
     <x:row r="2" spans="6:6">
       <x:c r="F2" s="9" t="s">
-        <x:v>0</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:2">
       <x:c r="B5" s="11" t="s">
-        <x:v>55</x:v>
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:2">
       <x:c r="B6" t="s">
-        <x:v>35</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:4">
       <x:c r="B7" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C7" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D7" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:4">
       <x:c r="B8" s="24" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="19" t="s">
         <x:v>76</x:v>
       </x:c>
-      <x:c r="C8" s="19" t="s">
-        <x:v>47</x:v>
-      </x:c>
       <x:c r="D8" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:4">
       <x:c r="B9" s="24" t="s">
-        <x:v>20</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D9" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:4">
       <x:c r="B10" s="24" t="s">
-        <x:v>69</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="D10" s="20" t="s">
-        <x:v>51</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4">
       <x:c r="B11" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C11" s="41"/>
       <x:c r="D11" s="21"/>
     </x:row>
     <x:row r="12" spans="2:4">
       <x:c r="B12" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C12" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D12" s="21"/>
     </x:row>
     <x:row r="13" spans="2:4">
       <x:c r="B13" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C13" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D13" s="21"/>
     </x:row>
@@ -3113,54 +3052,54 @@
     </x:row>
     <x:row r="16" spans="2:2">
       <x:c r="B16" s="11" t="s">
-        <x:v>3</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:2">
       <x:c r="B17" t="s">
-        <x:v>36</x:v>
+        <x:v>65</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:4">
       <x:c r="B18" s="14" t="s">
-        <x:v>61</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C18" s="15" t="s">
-        <x:v>64</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D18" s="16" t="s">
-        <x:v>1</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:4">
       <x:c r="B19" s="39" t="s">
-        <x:v>53</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C19" s="40"/>
       <x:c r="D19" s="41"/>
     </x:row>
     <x:row r="20" spans="2:4">
       <x:c r="B20" s="44" t="s">
-        <x:v>54</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C20" s="41"/>
       <x:c r="D20" s="21"/>
     </x:row>
     <x:row r="21" spans="2:4">
       <x:c r="B21" s="22" t="s">
-        <x:v>53</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C21" s="23" t="s">
-        <x:v>70</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D21" s="21"/>
     </x:row>
     <x:row r="22" spans="2:4">
       <x:c r="B22" s="5" t="s">
-        <x:v>41</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C22" s="7" t="s">
-        <x:v>34</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D22" s="21"/>
     </x:row>
